--- a/biology/Médecine/Andrew_Jackson_Davis/Andrew_Jackson_Davis.xlsx
+++ b/biology/Médecine/Andrew_Jackson_Davis/Andrew_Jackson_Davis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andrew Jackson Davis (né le 11 août 1826, mort le 13 janvier 1910) fut une figure du mouvement Spiritualisme aux États-Unis. Il est né à Blooming Grove, État de New York.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Andrew Jackson Davis bénéficia d'une grande renommée en tant que clairvoyant et médium. Il pratiqua des soins en utilisant le magnétisme, selon les principes du mesmérisme. Il entrait en état de transe et dictait verbalement des livres entiers à son entourage. Cette méthode lui permit de produire un grand nombre d'ouvrages à vocation scientifique. Selon l'opinion commune de son époque, il n'avait jamais reçu la moindre éducation scolaire.
 </t>
